--- a/Airport/Flight_Report.xlsx
+++ b/Airport/Flight_Report.xlsx
@@ -12,21 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
-    <t>City1</t>
+    <t>Avianca</t>
   </si>
   <si>
-    <t>City2</t>
+    <t>Toronto,Canada</t>
   </si>
   <si>
-    <t>20/05/2021</t>
+    <t>La libertad,El Salvador</t>
   </si>
   <si>
-    <t>21/05/2021</t>
+    <t>-</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Departure did succesfully! /n Good weather!</t>
   </si>
 </sst>
 </file>
@@ -81,16 +84,20 @@
       <c r="A1" t="n">
         <v>0.0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -99,7 +106,7 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
